--- a/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
+++ b/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
@@ -200,7 +200,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">

--- a/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
+++ b/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
@@ -200,7 +200,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12">

--- a/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
+++ b/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
@@ -200,7 +200,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">

--- a/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
+++ b/PersonalAccountOfStudent/wwwroot/files/progress/Успеваемость_Khusnetdinov Dmitry.xlsx
@@ -200,7 +200,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12">
